--- a/TeamContributions.xlsx
+++ b/TeamContributions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danfe\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BCC993C-EBCF-4B8E-A7DF-013366B87680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255938A3-46C3-44A3-8F81-0108AE1BF2E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4524" yWindow="2112" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -37,18 +37,6 @@
     <t>WEEK 1 TASKS</t>
   </si>
   <si>
-    <t>Joseph Fanning</t>
-  </si>
-  <si>
-    <t>Dan Ferguson</t>
-  </si>
-  <si>
-    <t>Callum Hamilton</t>
-  </si>
-  <si>
-    <t>Dale Follows</t>
-  </si>
-  <si>
     <t xml:space="preserve">Create Github page, setup and built project with JAR, setup dockerfile and Docker in Github actions and create first release. </t>
   </si>
   <si>
@@ -59,6 +47,18 @@
   </si>
   <si>
     <t>SCORE</t>
+  </si>
+  <si>
+    <t>Dan Ferguson - 40534169</t>
+  </si>
+  <si>
+    <t>Joseph Fanning - 40593072</t>
+  </si>
+  <si>
+    <t>Callum Hamilton - 40591758</t>
+  </si>
+  <si>
+    <t>Dale Follows - 40606982</t>
   </si>
 </sst>
 </file>
@@ -126,7 +126,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -489,18 +489,18 @@
   <dimension ref="B2:E6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="82.42578125" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="82.44140625" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -508,46 +508,46 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="D3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D6">
         <v>0</v>

--- a/TeamContributions.xlsx
+++ b/TeamContributions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danfe\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danfe\OneDrive\Desktop\Second Year\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255938A3-46C3-44A3-8F81-0108AE1BF2E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B66DD341-8343-4FF4-8F3F-83160FB5FCD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4524" yWindow="2112" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -29,26 +29,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>MEMBERS</t>
   </si>
   <si>
-    <t>WEEK 1 TASKS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create Github page, setup and built project with JAR, setup dockerfile and Docker in Github actions and create first release. </t>
-  </si>
-  <si>
-    <t>Created the use cases and use case diagrams and started using and creating our github issues. Helped with issues on project build and setup.</t>
-  </si>
-  <si>
-    <t>Created the backlog, user stories, branches, code of conduct and gave out group tasks. Help with issues on project build and setup.</t>
-  </si>
-  <si>
-    <t>SCORE</t>
-  </si>
-  <si>
     <t>Dan Ferguson - 40534169</t>
   </si>
   <si>
@@ -59,6 +44,12 @@
   </si>
   <si>
     <t>Dale Follows - 40606982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEEK 1 </t>
+  </si>
+  <si>
+    <t>WEEK 2</t>
   </si>
 </sst>
 </file>
@@ -210,13 +201,17 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table" displayName="Table" ref="B2:D6" totalsRowShown="0">
   <autoFilter ref="B2:D6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="MEMBERS"/>
-    <tableColumn id="8" xr3:uid="{D53E75A9-F30D-4BCB-8B14-C1FB3BC3C1A3}" name="WEEK 1 TASKS"/>
-    <tableColumn id="10" xr3:uid="{9E8AC0FF-EF32-418F-9DE3-AAA928D283E0}" name="SCORE"/>
+    <tableColumn id="8" xr3:uid="{D53E75A9-F30D-4BCB-8B14-C1FB3BC3C1A3}" name="WEEK 1 "/>
+    <tableColumn id="10" xr3:uid="{9E8AC0FF-EF32-418F-9DE3-AAA928D283E0}" name="WEEK 2"/>
   </tableColumns>
   <tableStyleInfo name="Table" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -489,14 +484,14 @@
   <dimension ref="B2:E6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.6640625" customWidth="1"/>
     <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="82.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
@@ -505,18 +500,18 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
         <v>2</v>
+      </c>
+      <c r="C3">
+        <v>33</v>
       </c>
       <c r="D3">
         <v>33</v>
@@ -524,10 +519,10 @@
     </row>
     <row r="4" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>33</v>
       </c>
       <c r="D4">
         <v>33</v>
@@ -536,10 +531,10 @@
     </row>
     <row r="5" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
         <v>3</v>
+      </c>
+      <c r="C5">
+        <v>33</v>
       </c>
       <c r="D5">
         <v>33</v>
@@ -547,7 +542,10 @@
     </row>
     <row r="6" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>9</v>
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>

--- a/TeamContributions.xlsx
+++ b/TeamContributions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danfe\OneDrive\Desktop\Second Year\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B66DD341-8343-4FF4-8F3F-83160FB5FCD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAEB756E-E4E2-4769-9E47-E4100AC9FD39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>MEMBERS</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>WEEK 2</t>
+  </si>
+  <si>
+    <t>WEEK 3</t>
   </si>
 </sst>
 </file>
@@ -201,17 +204,14 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table" displayName="Table" ref="B2:D6" totalsRowShown="0">
-  <autoFilter ref="B2:D6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table" displayName="Table" ref="B2:E6" totalsRowShown="0">
+  <autoFilter ref="B2:E6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="MEMBERS"/>
     <tableColumn id="8" xr3:uid="{D53E75A9-F30D-4BCB-8B14-C1FB3BC3C1A3}" name="WEEK 1 "/>
     <tableColumn id="10" xr3:uid="{9E8AC0FF-EF32-418F-9DE3-AAA928D283E0}" name="WEEK 2"/>
+    <tableColumn id="2" xr3:uid="{8469296D-25E2-4269-B6F1-F8D22BAF9A9F}" name="WEEK 3"/>
   </tableColumns>
   <tableStyleInfo name="Table" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -481,10 +481,10 @@
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:E6"/>
+  <dimension ref="B2:F6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -493,9 +493,10 @@
     <col min="2" max="2" width="21.6640625" customWidth="1"/>
     <col min="3" max="3" width="15.77734375" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -505,8 +506,11 @@
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -516,8 +520,11 @@
       <c r="D3">
         <v>33</v>
       </c>
+      <c r="E3">
+        <v>33</v>
+      </c>
     </row>
-    <row r="4" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -527,9 +534,12 @@
       <c r="D4">
         <v>33</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4">
+        <v>33</v>
+      </c>
+      <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -539,8 +549,11 @@
       <c r="D5">
         <v>33</v>
       </c>
+      <c r="E5">
+        <v>33</v>
+      </c>
     </row>
-    <row r="6" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -548,6 +561,9 @@
         <v>0</v>
       </c>
       <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
         <v>0</v>
       </c>
     </row>

--- a/TeamContributions.xlsx
+++ b/TeamContributions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danfe\OneDrive\Desktop\Second Year\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAEB756E-E4E2-4769-9E47-E4100AC9FD39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382972D9-97F1-4CC2-B614-D2E4101A7371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4872" yWindow="2460" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>MEMBERS</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>WEEK 3</t>
+  </si>
+  <si>
+    <t>FINAL SUB</t>
   </si>
 </sst>
 </file>
@@ -205,13 +208,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table" displayName="Table" ref="B2:E6" totalsRowShown="0">
-  <autoFilter ref="B2:E6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table" displayName="Table" ref="B2:F6" totalsRowShown="0">
+  <autoFilter ref="B2:F6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="MEMBERS"/>
     <tableColumn id="8" xr3:uid="{D53E75A9-F30D-4BCB-8B14-C1FB3BC3C1A3}" name="WEEK 1 "/>
     <tableColumn id="10" xr3:uid="{9E8AC0FF-EF32-418F-9DE3-AAA928D283E0}" name="WEEK 2"/>
     <tableColumn id="2" xr3:uid="{8469296D-25E2-4269-B6F1-F8D22BAF9A9F}" name="WEEK 3"/>
+    <tableColumn id="3" xr3:uid="{369B81E6-C478-4996-A117-B120A24653FA}" name="FINAL SUB"/>
   </tableColumns>
   <tableStyleInfo name="Table" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -481,10 +485,10 @@
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:F6"/>
+  <dimension ref="B2:G6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -494,9 +498,10 @@
     <col min="3" max="3" width="15.77734375" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="16.21875" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -509,8 +514,11 @@
       <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -523,8 +531,11 @@
       <c r="E3">
         <v>33</v>
       </c>
+      <c r="F3">
+        <v>33</v>
+      </c>
     </row>
-    <row r="4" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -537,9 +548,12 @@
       <c r="E4">
         <v>33</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4">
+        <v>33</v>
+      </c>
+      <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -552,8 +566,11 @@
       <c r="E5">
         <v>33</v>
       </c>
+      <c r="F5">
+        <v>33</v>
+      </c>
     </row>
-    <row r="6" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -564,6 +581,9 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0</v>
       </c>
     </row>
